--- a/excels/pings/01alpha_20n_rhodes.xlsx
+++ b/excels/pings/01alpha_20n_rhodes.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01alpha_20n_rhodes'!$B$1:$C$161</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="12">
   <si>
     <t>ip</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve"> no se puede calcular el throughput</t>
+  </si>
+  <si>
+    <t>ertt avg</t>
   </si>
 </sst>
 </file>
@@ -875,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="F162" sqref="F162:G162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5376,6 +5379,15 @@
         <v>4.9898477354499997</v>
       </c>
     </row>
+    <row r="162" spans="1:8">
+      <c r="F162" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G162" s="1">
+        <f>SUM(G2:G161)/ROWS(G2:G161)</f>
+        <v>0.50094851676936281</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:C161"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
